--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\Python Scripts\Clustering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25C5C52-ABE4-4456-88DF-806DA9B34BDD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92424D52-DF7F-4F74-9FC6-0080DB66A86C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" firstSheet="2" activeTab="3" xr2:uid="{197B5D6B-D37C-48EC-9D3A-96B14B8A4678}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" firstSheet="1" activeTab="3" xr2:uid="{197B5D6B-D37C-48EC-9D3A-96B14B8A4678}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="70">
   <si>
     <t>KNO</t>
   </si>
@@ -142,6 +142,105 @@
   </si>
   <si>
     <t>Ward</t>
+  </si>
+  <si>
+    <t>0.015598</t>
+  </si>
+  <si>
+    <t>0.009759</t>
+  </si>
+  <si>
+    <t>0.033903</t>
+  </si>
+  <si>
+    <t>0.038294</t>
+  </si>
+  <si>
+    <t>0.105040</t>
+  </si>
+  <si>
+    <t>0.050665</t>
+  </si>
+  <si>
+    <t>0.132091</t>
+  </si>
+  <si>
+    <t>0.149933</t>
+  </si>
+  <si>
+    <t>0.013287</t>
+  </si>
+  <si>
+    <t>0.007045</t>
+  </si>
+  <si>
+    <t>0.028013</t>
+  </si>
+  <si>
+    <t>0.036651</t>
+  </si>
+  <si>
+    <t>0.097568</t>
+  </si>
+  <si>
+    <t>0.050304</t>
+  </si>
+  <si>
+    <t>0.126518</t>
+  </si>
+  <si>
+    <t>0.154134</t>
+  </si>
+  <si>
+    <t>0.682647</t>
+  </si>
+  <si>
+    <t>0.494584</t>
+  </si>
+  <si>
+    <t>0.650394</t>
+  </si>
+  <si>
+    <t>0.394069</t>
+  </si>
+  <si>
+    <t>0.038076</t>
+  </si>
+  <si>
+    <t>0.027385</t>
+  </si>
+  <si>
+    <t>0.052183</t>
+  </si>
+  <si>
+    <t>0.032908</t>
+  </si>
+  <si>
+    <t>0.181682</t>
+  </si>
+  <si>
+    <t>0.163616</t>
+  </si>
+  <si>
+    <t>0.203886</t>
+  </si>
+  <si>
+    <t>0.174995</t>
+  </si>
+  <si>
+    <t>Cluster 0</t>
+  </si>
+  <si>
+    <t>Cluster 1</t>
+  </si>
+  <si>
+    <t>Cluster 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cluster 0</t>
+  </si>
+  <si>
+    <t>Cluster 3</t>
   </si>
 </sst>
 </file>
@@ -216,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -241,9 +340,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -277,18 +373,11 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -303,6 +392,39 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -320,6 +442,3404 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29525459317585306"/>
+          <c:y val="0.26814505202920413"/>
+          <c:w val="0.38449103237095361"/>
+          <c:h val="0.60295190016868594"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CKMeans2018!$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cluster 0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CKMeans2018!$H$9:$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Revenue Aero 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Revenue Non - Aero 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pergerakan Penumpang 2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pergerakan Pesawat 2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CKMeans2018!$I$9:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.5598000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7590000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3903000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8294000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E30-4FE5-BEEF-87BBCC83478B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CKMeans2018!$J$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cluster 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CKMeans2018!$H$9:$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Revenue Aero 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Revenue Non - Aero 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pergerakan Penumpang 2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pergerakan Pesawat 2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CKMeans2018!$J$9:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9E30-4FE5-BEEF-87BBCC83478B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CKMeans2018!$K$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cluster 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CKMeans2018!$H$9:$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Revenue Aero 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Revenue Non - Aero 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pergerakan Penumpang 2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pergerakan Pesawat 2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CKMeans2018!$K$9:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.10503999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0665000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13209099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14993300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9E30-4FE5-BEEF-87BBCC83478B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="893779216"/>
+        <c:axId val="901345152"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="893779216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="901345152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="901345152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="893779216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29857780786451465"/>
+          <c:y val="0.2759934446599972"/>
+          <c:w val="0.38524779990736446"/>
+          <c:h val="0.61695480999657648"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CKMeans2019!$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Cluster 0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CKMeans2019!$H$9:$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Revenue Aero 2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Revenue Non - Aero 2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pergerakan Penumpang 2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pergerakan Pesawat 2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CKMeans2019!$I$9:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.3287E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.045E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8013E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6651000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ADAF-42F8-8D05-A64EF21E2780}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CKMeans2019!$J$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cluster 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CKMeans2019!$H$9:$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Revenue Aero 2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Revenue Non - Aero 2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pergerakan Penumpang 2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pergerakan Pesawat 2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CKMeans2019!$J$9:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ADAF-42F8-8D05-A64EF21E2780}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CKMeans2019!$K$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cluster 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CKMeans2019!$H$9:$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Revenue Aero 2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Revenue Non - Aero 2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pergerakan Penumpang 2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pergerakan Pesawat 2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CKMeans2019!$K$9:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.7568000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0304000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12651799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15413399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ADAF-42F8-8D05-A64EF21E2780}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="906620960"/>
+        <c:axId val="898229856"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="906620960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="898229856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="898229856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="906620960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30055453174736135"/>
+          <c:y val="0.28494086306543354"/>
+          <c:w val="0.36747398596452036"/>
+          <c:h val="0.62880864103152145"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CKMeans2020!$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cluster 0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CKMeans2020!$H$9:$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Revenue Aero 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Revenue Non - Aero 2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pergerakan Penumpang 2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pergerakan Pesawat 2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CKMeans2020!$I$9:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.682647</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49458400000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65039400000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.394069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9D5-4703-9BA7-C7DEAF595E77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CKMeans2020!$J$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cluster 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CKMeans2020!$H$9:$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Revenue Aero 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Revenue Non - Aero 2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pergerakan Penumpang 2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pergerakan Pesawat 2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CKMeans2020!$J$9:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.8075999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7385E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2183E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2908E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F9D5-4703-9BA7-C7DEAF595E77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CKMeans2020!$K$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cluster 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CKMeans2020!$H$9:$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Revenue Aero 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Revenue Non - Aero 2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pergerakan Penumpang 2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pergerakan Pesawat 2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CKMeans2020!$K$9:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F9D5-4703-9BA7-C7DEAF595E77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CKMeans2020!$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cluster 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CKMeans2020!$H$9:$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Revenue Aero 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Revenue Non - Aero 2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pergerakan Penumpang 2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pergerakan Pesawat 2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CKMeans2020!$L$9:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.18168200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16361600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20388600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17499500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F9D5-4703-9BA7-C7DEAF595E77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="898240016"/>
+        <c:axId val="901343488"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="898240016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="901343488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="901343488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="898240016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>642731</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>172277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1018429</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>172277</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A70F90-77AB-4A59-9097-0C76EC52AC5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1021080</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07118472-7298-470E-B070-7FB3285AE5DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0C1ED88-2FB5-4FE3-9171-3A399826FFD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,10 +4207,10 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="24">
         <v>4317423902896</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="24">
         <v>3595244477921</v>
       </c>
       <c r="D2" s="2">
@@ -699,10 +4219,10 @@
       <c r="E2" s="4">
         <v>463069</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="24">
         <v>4219148476589</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="24">
         <v>4049789753722</v>
       </c>
       <c r="H2" s="2">
@@ -711,10 +4231,10 @@
       <c r="I2" s="2">
         <v>390648</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="24">
         <v>1516723541152</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="24">
         <v>2626296548540</v>
       </c>
       <c r="L2" s="2">
@@ -728,10 +4248,10 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="24">
         <v>706382043851</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="24">
         <v>274503007319</v>
       </c>
       <c r="D3" s="2">
@@ -740,10 +4260,10 @@
       <c r="E3" s="4">
         <v>80354</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="24">
         <v>654433487284</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="24">
         <v>304686013304</v>
       </c>
       <c r="H3" s="2">
@@ -752,10 +4272,10 @@
       <c r="I3" s="2">
         <v>64691</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="24">
         <v>243613196254</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="24">
         <v>160388298189</v>
       </c>
       <c r="L3" s="2">
@@ -769,10 +4289,10 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="24">
         <v>206966065344</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>101007971155</v>
       </c>
       <c r="D4" s="2">
@@ -781,10 +4301,10 @@
       <c r="E4" s="4">
         <v>66798</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <v>174746216035</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <v>116414789319</v>
       </c>
       <c r="H4" s="2">
@@ -793,10 +4313,10 @@
       <c r="I4" s="2">
         <v>62047</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="24">
         <v>75208158668</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="24">
         <v>70200668114</v>
       </c>
       <c r="L4" s="2">
@@ -810,10 +4330,10 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <v>149076710765</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>92809307934</v>
       </c>
       <c r="D5" s="2">
@@ -822,10 +4342,10 @@
       <c r="E5" s="4">
         <v>45559</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <v>122877051273</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="24">
         <v>77152244903</v>
       </c>
       <c r="H5" s="2">
@@ -834,10 +4354,10 @@
       <c r="I5" s="2">
         <v>37254</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="24">
         <v>53232904080</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="24">
         <v>42158139805</v>
       </c>
       <c r="L5" s="2">
@@ -851,10 +4371,10 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <v>128427048488</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>70705455495</v>
       </c>
       <c r="D6" s="2">
@@ -863,10 +4383,10 @@
       <c r="E6" s="2">
         <v>32936</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <v>144008527733</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="24">
         <v>64010897256</v>
       </c>
       <c r="H6" s="2">
@@ -875,10 +4395,10 @@
       <c r="I6" s="2">
         <v>27453</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="24">
         <v>61784144028</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="24">
         <v>44287072767</v>
       </c>
       <c r="L6" s="2">
@@ -892,10 +4412,10 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <v>106121082562</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>46240610683</v>
       </c>
       <c r="D7" s="2">
@@ -904,10 +4424,10 @@
       <c r="E7" s="2">
         <v>29990</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <v>90523733742</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="24">
         <v>45862274472</v>
       </c>
       <c r="H7" s="2">
@@ -916,10 +4436,10 @@
       <c r="I7" s="2">
         <v>24111</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="24">
         <v>43995120381</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="24">
         <v>26045439499</v>
       </c>
       <c r="L7" s="2">
@@ -933,10 +4453,10 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>139335880721</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>57250666055</v>
       </c>
       <c r="D8" s="2">
@@ -945,10 +4465,10 @@
       <c r="E8" s="2">
         <v>31865</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <v>94051483823</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="24">
         <v>49993528783</v>
       </c>
       <c r="H8" s="2">
@@ -957,10 +4477,10 @@
       <c r="I8" s="2">
         <v>24011</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="24">
         <v>19883366716</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="24">
         <v>20011808672</v>
       </c>
       <c r="L8" s="2">
@@ -974,10 +4494,10 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <v>97796964908</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>64423307751</v>
       </c>
       <c r="D9" s="2">
@@ -986,10 +4506,10 @@
       <c r="E9" s="2">
         <v>39655</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <v>85415689450</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="24">
         <v>59946046093</v>
       </c>
       <c r="H9" s="2">
@@ -998,10 +4518,10 @@
       <c r="I9" s="2">
         <v>29755</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="24">
         <v>50276663080</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="24">
         <v>35044389976</v>
       </c>
       <c r="L9" s="2">
@@ -1015,10 +4535,10 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="24">
         <v>33987751263</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="24">
         <v>35488780178</v>
       </c>
       <c r="D10" s="2">
@@ -1027,10 +4547,10 @@
       <c r="E10" s="2">
         <v>21361</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="24">
         <v>36882178819</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="24">
         <v>27262152555</v>
       </c>
       <c r="H10" s="2">
@@ -1039,10 +4559,10 @@
       <c r="I10" s="2">
         <v>17471</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="24">
         <v>16118167790</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="24">
         <v>12171853248</v>
       </c>
       <c r="L10" s="2">
@@ -1056,10 +4576,10 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="24">
         <v>69708460017</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>33309358972</v>
       </c>
       <c r="D11" s="2">
@@ -1068,10 +4588,10 @@
       <c r="E11" s="2">
         <v>17326</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <v>54573766484</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="24">
         <v>30421594644</v>
       </c>
       <c r="H11" s="2">
@@ -1080,10 +4600,10 @@
       <c r="I11" s="2">
         <v>15333</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="24">
         <v>22468427425</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="24">
         <v>13354608870</v>
       </c>
       <c r="L11" s="2">
@@ -1097,10 +4617,10 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="24">
         <v>38607159224</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="24">
         <v>14788886301</v>
       </c>
       <c r="D12" s="2">
@@ -1109,10 +4629,10 @@
       <c r="E12" s="2">
         <v>10510</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <v>44937569390</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="24">
         <v>16825920399</v>
       </c>
       <c r="H12" s="2">
@@ -1121,10 +4641,10 @@
       <c r="I12" s="2">
         <v>9279</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="24">
         <v>13493971043</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="24">
         <v>14178402926</v>
       </c>
       <c r="L12" s="2">
@@ -1138,10 +4658,10 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="24">
         <v>8660079652</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>5902367284</v>
       </c>
       <c r="D13" s="2">
@@ -1150,10 +4670,10 @@
       <c r="E13" s="2">
         <v>5449</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="24">
         <v>8258588636</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="24">
         <v>7190383054</v>
       </c>
       <c r="H13" s="2">
@@ -1162,10 +4682,10 @@
       <c r="I13" s="2">
         <v>4669</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="24">
         <v>4122742971</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="24">
         <v>4280844786</v>
       </c>
       <c r="L13" s="2">
@@ -1179,10 +4699,10 @@
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <v>3541764044</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>10401643140</v>
       </c>
       <c r="D14" s="2">
@@ -1191,10 +4711,10 @@
       <c r="E14" s="2">
         <v>4878</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="24">
         <v>12620747515</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="24">
         <v>12483169611</v>
       </c>
       <c r="H14" s="2">
@@ -1203,10 +4723,10 @@
       <c r="I14" s="2">
         <v>3732</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="24">
         <v>5653126075</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="24">
         <v>5031143236</v>
       </c>
       <c r="L14" s="2">
@@ -1220,10 +4740,10 @@
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="24">
         <v>3845393985</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <v>18933232582</v>
       </c>
       <c r="D15" s="2">
@@ -1232,10 +4752,10 @@
       <c r="E15" s="2">
         <v>7136</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <v>3253590662</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="24">
         <v>20332070305</v>
       </c>
       <c r="H15" s="2">
@@ -1244,10 +4764,10 @@
       <c r="I15" s="2">
         <v>4567</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="24">
         <v>3093014106</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="24">
         <v>10102716526</v>
       </c>
       <c r="L15" s="2">
@@ -1261,14 +4781,14 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="25">
+      <c r="F16" s="24">
         <v>13843502134</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="24">
         <v>16552047780</v>
       </c>
       <c r="H16" s="2">
@@ -1277,10 +4797,10 @@
       <c r="I16" s="2">
         <v>17321</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="24">
         <v>7748246113</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="24">
         <v>22639291564</v>
       </c>
       <c r="L16" s="2">
@@ -1294,18 +4814,18 @@
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="25">
+      <c r="J17" s="24">
         <v>6932100672</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="24">
         <v>4845049142</v>
       </c>
       <c r="L17" s="2">
@@ -1319,18 +4839,18 @@
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="25">
+      <c r="J18" s="24">
         <v>9393477295</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="24">
         <v>6170676201</v>
       </c>
       <c r="L18" s="2">
@@ -1344,18 +4864,18 @@
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="25">
+      <c r="J19" s="24">
         <v>17458213571</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="24">
         <v>8042135978</v>
       </c>
       <c r="L19" s="2">
@@ -1372,202 +4892,316 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DCC0A6-C327-4385-A7E6-043E69EFAB6B}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="B1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="3" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="8" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="6"/>
+      <c r="C2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="12">
+      <c r="G2" s="11"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="13">
         <v>0</v>
       </c>
-      <c r="I2" s="12">
+      <c r="J2" s="13">
         <v>1</v>
       </c>
-      <c r="J2" s="12">
+      <c r="K2" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="8">
         <v>0</v>
       </c>
-      <c r="B3" s="27">
+      <c r="C3" s="25">
         <v>4217838000</v>
       </c>
-      <c r="C3" s="27">
+      <c r="D3" s="25">
         <v>4924182000</v>
       </c>
-      <c r="D3" s="27">
+      <c r="E3" s="25">
         <v>177151.5</v>
       </c>
-      <c r="E3" s="27">
+      <c r="F3" s="25">
         <v>3339.5622760000001</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="30">
+      <c r="G3" s="11"/>
+      <c r="H3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="29">
         <v>4217838000</v>
       </c>
-      <c r="I3" s="30">
+      <c r="J3" s="29">
         <v>75208160000</v>
       </c>
-      <c r="J3" s="30">
+      <c r="K3" s="29">
         <v>10668020000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+    <row r="4" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="27">
+      <c r="C4" s="25">
         <v>75208160000</v>
       </c>
-      <c r="C4" s="27">
+      <c r="D4" s="25">
         <v>70200670000</v>
       </c>
-      <c r="D4" s="27">
+      <c r="E4" s="25">
         <v>2085179</v>
       </c>
-      <c r="E4" s="27">
+      <c r="F4" s="25">
         <v>36152</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="30">
+      <c r="G4" s="11"/>
+      <c r="H4" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="29">
         <v>4924182000</v>
       </c>
-      <c r="I4" s="30">
+      <c r="J4" s="29">
         <v>70200670000</v>
       </c>
-      <c r="J4" s="30">
+      <c r="K4" s="29">
         <v>7620656000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+    <row r="5" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="27">
+      <c r="C5" s="25">
         <v>10668020000</v>
       </c>
-      <c r="C5" s="27">
+      <c r="D5" s="25">
         <v>7620656000</v>
       </c>
-      <c r="D5" s="27">
+      <c r="E5" s="25">
         <v>371069.9</v>
       </c>
-      <c r="E5" s="27">
+      <c r="F5" s="25">
         <v>7148.567661</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="30">
+      <c r="G5" s="11"/>
+      <c r="H5" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="29">
         <v>177151.5</v>
       </c>
-      <c r="I5" s="30">
+      <c r="J5" s="29">
         <v>2085179</v>
       </c>
-      <c r="J5" s="30">
+      <c r="K5" s="29">
         <v>371069.9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
+    <row r="6" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="30">
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="29">
         <v>3339.5622760000001</v>
       </c>
-      <c r="I6" s="30">
+      <c r="J6" s="29">
         <v>36152</v>
       </c>
-      <c r="J6" s="30">
+      <c r="K6" s="29">
         <v>7148.567661</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E7" s="11"/>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="26"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="32"/>
+      <c r="C8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="34">
+        <v>0</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="37">
+        <v>1.5598000000000001E-2</v>
+      </c>
+      <c r="J9" s="39">
+        <v>1</v>
+      </c>
+      <c r="K9" s="37">
+        <v>0.10503999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="34">
+        <v>1</v>
+      </c>
+      <c r="C10" s="35">
+        <v>1000000</v>
+      </c>
+      <c r="D10" s="35">
+        <v>1000000</v>
+      </c>
+      <c r="E10" s="36">
+        <v>1000000</v>
+      </c>
+      <c r="F10" s="36">
+        <v>1000000</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="37">
+        <v>9.7590000000000003E-3</v>
+      </c>
+      <c r="J10" s="39">
+        <v>1</v>
+      </c>
+      <c r="K10" s="37">
+        <v>5.0665000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="34">
+        <v>2</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="40">
+        <v>3.3903000000000003E-2</v>
+      </c>
+      <c r="J11" s="41">
+        <v>1</v>
+      </c>
+      <c r="K11" s="37">
+        <v>0.13209099999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="40">
+        <v>3.8294000000000002E-2</v>
+      </c>
+      <c r="J12" s="41">
+        <v>1</v>
+      </c>
+      <c r="K12" s="37">
+        <v>0.14993300000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDE2615-EDF0-4C08-B6A5-1FF1E1CF88B3}">
-  <dimension ref="B2:K6"/>
+  <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
@@ -1577,7 +5211,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="16"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="8" t="s">
         <v>31</v>
       </c>
@@ -1591,14 +5225,14 @@
         <v>34</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="14">
+      <c r="H2" s="27"/>
+      <c r="I2" s="13">
         <v>0</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <v>1</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="13">
         <v>2</v>
       </c>
     </row>
@@ -1606,114 +5240,241 @@
       <c r="B3" s="8">
         <v>0</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="25">
         <v>4051214000</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="25">
         <v>4745231000</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="25">
         <v>165517.70000000001</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="25">
         <v>3283.507963</v>
       </c>
-      <c r="H3" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="33">
+      <c r="H3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="29">
         <v>4051214000</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="29">
         <v>75208160000</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="29">
         <v>10129140000</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="25">
         <v>75208160000</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="25">
         <v>70200670000</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="25">
         <v>2085179</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="25">
         <v>36152</v>
       </c>
-      <c r="H4" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="33">
+      <c r="H4" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="29">
         <v>4745231000</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="29">
         <v>70200670000</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="29">
         <v>7596894000</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="25">
         <v>10129140000</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="25">
         <v>7596894000</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="25">
         <v>360063.8</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="25">
         <v>7291.9058169999998</v>
       </c>
-      <c r="H5" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="33">
+      <c r="H5" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="29">
         <v>165517.70000000001</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="29">
         <v>2085179</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="29">
         <v>360063.8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H6" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="33">
+    <row r="6" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H6" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="29">
         <v>3283.507963</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="29">
         <v>36152</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="29">
         <v>7291.9058169999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="34"/>
+      <c r="C8" s="32">
+        <v>0</v>
+      </c>
+      <c r="D8" s="32">
+        <v>1</v>
+      </c>
+      <c r="E8" s="32">
+        <v>2</v>
+      </c>
+      <c r="F8" s="32">
+        <v>3</v>
+      </c>
+      <c r="H8" s="42"/>
+      <c r="I8" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="34">
+        <v>0</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="37">
+        <v>1.3287E-2</v>
+      </c>
+      <c r="J9" s="39">
+        <v>1</v>
+      </c>
+      <c r="K9" s="37">
+        <v>9.7568000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="34">
+        <v>1</v>
+      </c>
+      <c r="C10" s="35">
+        <v>1000000</v>
+      </c>
+      <c r="D10" s="35">
+        <v>1000000</v>
+      </c>
+      <c r="E10" s="35">
+        <v>1000000</v>
+      </c>
+      <c r="F10" s="35">
+        <v>1000000</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="37">
+        <v>7.045E-3</v>
+      </c>
+      <c r="J10" s="39">
+        <v>1</v>
+      </c>
+      <c r="K10" s="37">
+        <v>5.0304000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="34">
+        <v>2</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="37">
+        <v>2.8013E-2</v>
+      </c>
+      <c r="J11" s="39">
+        <v>1</v>
+      </c>
+      <c r="K11" s="37">
+        <v>0.12651799999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H12" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="37">
+        <v>3.6651000000000003E-2</v>
+      </c>
+      <c r="J12" s="39">
+        <v>1</v>
+      </c>
+      <c r="K12" s="37">
+        <v>0.15413399999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DBBCAF-D7C1-4B5E-BFBF-1D86D43D8695}">
-  <dimension ref="B2:L6"/>
+  <dimension ref="B2:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1744,16 +5505,16 @@
         <v>34</v>
       </c>
       <c r="H2" s="6"/>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <v>0</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="16">
         <v>1</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="16">
         <v>2</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="16">
         <v>3</v>
       </c>
     </row>
@@ -1761,132 +5522,288 @@
       <c r="B3" s="7">
         <v>0</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="30">
         <v>52322210000</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="30">
         <v>36883760000</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="30">
         <v>1394713</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="30">
         <v>15478.25</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="35">
+      <c r="H3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="31">
         <v>52322210000</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="31">
         <v>5838892000</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3" s="31">
         <v>75208160000</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="31">
         <v>16195070000</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="30">
         <v>5838892000</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="30">
         <v>6086086000</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="30">
         <v>213254.39999999999</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="30">
         <v>3155.8</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="35">
+      <c r="H4" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="31">
         <v>36883760000</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="31">
         <v>6086086000</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="31">
         <v>70200670000</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4" s="31">
         <v>15066350000</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="30">
         <v>75208160000</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="30">
         <v>70200670000</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="30">
         <v>2085179</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="30">
         <v>36152</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="35">
+      <c r="H5" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="31">
         <v>1394713</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="31">
         <v>213254.39999999999</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5" s="31">
         <v>2085179</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="31">
         <v>512865.8</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="30">
         <v>16195070000</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="30">
         <v>15066350000</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="30">
         <v>512865.8</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="30">
         <v>8003.6666670000004</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="35">
+      <c r="H6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="31">
         <v>15478.25</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="31">
         <v>3155.8</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="31">
         <v>36152</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="31">
         <v>8003.6666670000004</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C8" s="34">
+        <v>0</v>
+      </c>
+      <c r="D8" s="32">
+        <v>1</v>
+      </c>
+      <c r="E8" s="32">
+        <v>2</v>
+      </c>
+      <c r="F8" s="32">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="34">
+        <v>0</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="37">
+        <v>0.682647</v>
+      </c>
+      <c r="J9" s="37">
+        <v>3.8075999999999999E-2</v>
+      </c>
+      <c r="K9" s="39">
+        <v>1</v>
+      </c>
+      <c r="L9" s="37">
+        <v>0.18168200000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="34">
+        <v>1</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="37">
+        <v>0.49458400000000002</v>
+      </c>
+      <c r="J10" s="37">
+        <v>2.7385E-2</v>
+      </c>
+      <c r="K10" s="39">
+        <v>1</v>
+      </c>
+      <c r="L10" s="37">
+        <v>0.16361600000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="34">
+        <v>2</v>
+      </c>
+      <c r="C11" s="35">
+        <v>1000000</v>
+      </c>
+      <c r="D11" s="35">
+        <v>1000000</v>
+      </c>
+      <c r="E11" s="35">
+        <v>1000000</v>
+      </c>
+      <c r="F11" s="35">
+        <v>1000000</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="37">
+        <v>0.65039400000000003</v>
+      </c>
+      <c r="J11" s="37">
+        <v>5.2183E-2</v>
+      </c>
+      <c r="K11" s="39">
+        <v>1</v>
+      </c>
+      <c r="L11" s="37">
+        <v>0.20388600000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="34">
+        <v>3</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="37">
+        <v>0.394069</v>
+      </c>
+      <c r="J12" s="37">
+        <v>3.2908E-2</v>
+      </c>
+      <c r="K12" s="39">
+        <v>1</v>
+      </c>
+      <c r="L12" s="37">
+        <v>0.17499500000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1932,12 +5849,12 @@
       <c r="E2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="23">
+      <c r="F2" s="15"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="22">
         <v>0</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1945,26 +5862,26 @@
       <c r="A3" s="7">
         <v>0</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <v>5210175000000000</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <v>5339024000000000</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <v>206985100000</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <v>3925563104</v>
       </c>
       <c r="F3" s="11"/>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <v>5210175000000000</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="19">
         <v>7.520816E+16</v>
       </c>
     </row>
@@ -1972,26 +5889,26 @@
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>7.520816E+16</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>7.020067E+16</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>2085179000000</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <v>36152000000</v>
       </c>
       <c r="F4" s="11"/>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>5339024000000000</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <v>7.020067E+16</v>
       </c>
     </row>
@@ -2002,13 +5919,13 @@
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>206985100000</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <v>2085179000000</v>
       </c>
     </row>
@@ -2019,13 +5936,13 @@
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>3925563104</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <v>36152000000</v>
       </c>
     </row>
@@ -2035,7 +5952,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
@@ -2048,11 +5965,11 @@
       <c r="E9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19">
+      <c r="G9" s="17"/>
+      <c r="H9" s="18">
         <v>0</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="18">
         <v>1</v>
       </c>
     </row>
@@ -2060,25 +5977,25 @@
       <c r="A10" s="7">
         <v>0</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <v>5210175000000000</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>5339024000000000</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>206985100000</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <v>3925563104</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <v>5210175000000000</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="19">
         <v>7.520816E+16</v>
       </c>
     </row>
@@ -2086,47 +6003,47 @@
       <c r="A11" s="7">
         <v>1</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="20">
         <v>7.520816E+16</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>7.020067E+16</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>2085179000000</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="21">
         <v>36152000000</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <v>5339024000000000</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="19">
         <v>7.020067E+16</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <v>206985100000</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="19">
         <v>2085179000000</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <v>3925563104</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <v>36152000000</v>
       </c>
     </row>
